--- a/OnlineExamManagmentSystem/src/main/resources/static/sample_data.xlsx
+++ b/OnlineExamManagmentSystem/src/main/resources/static/sample_data.xlsx
@@ -1,193 +1,249 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bffdf37e9d207c1f/Documents/Fall2023/Software Engineering/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23303C5-FCFC-44A0-80FE-9902F8C6AB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Class Information</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">Class List for Academic Period:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructor Email: </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Tahoma, Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Instructor: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Tahoma, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">LastName, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t>FirstName</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructor ID: </t>
+  </si>
+  <si>
+    <t>Course: Course Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRN : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Time:      Location:   </t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Professor:</t>
-  </si>
-  <si>
-    <t>Students List:</t>
-  </si>
-  <si>
-    <t>Course ID:</t>
-  </si>
-  <si>
-    <t>Software Engineering</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Thangiah</t>
-  </si>
-  <si>
-    <t>Oleksii</t>
-  </si>
-  <si>
-    <t>Dukhovenko</t>
-  </si>
-  <si>
-    <t>Brent</t>
-  </si>
-  <si>
-    <t>BrentLastName</t>
-  </si>
-  <si>
-    <t>Seth</t>
-  </si>
-  <si>
-    <t>SethLastName</t>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>STUDENT CLASS</t>
+  </si>
+  <si>
+    <t>MAJOR</t>
+  </si>
+  <si>
+    <t>ADVISOR</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>LastName, FirstName</t>
+  </si>
+  <si>
+    <t>username@sru.edu</t>
+  </si>
+  <si>
+    <t>Ex. Freshman 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
+    <font/>
     <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
+      <sz val="8.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <bottom style="medium">
+        <color rgb="FF666699"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF666699"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666699"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF666699"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="17">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -377,124 +433,393 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="32.19921875" customWidth="1"/>
-    <col min="2" max="2" width="14.9296875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="53.13"/>
+    <col customWidth="1" min="2" max="2" width="13.5"/>
+    <col customWidth="1" min="3" max="3" width="12.38"/>
+    <col customWidth="1" min="4" max="4" width="11.0"/>
+    <col customWidth="1" min="5" max="5" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="15.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="5" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>99</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="8">
-        <v>98</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8">
-        <v>97</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>